--- a/output/google_maps_data_SMP_Kulon_Progo.xlsx
+++ b/output/google_maps_data_SMP_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 773538</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>-7.894879</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.894879</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.146538</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+NEGERI+2+WATES+KULON+PROGO/@-7.8948791,109.8581464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afd6465f2b165:0x6f96510ec3f540e9!8m2!3d-7.8948791!4d110.1465375!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11vrzhgd7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+NEGERI+2+WATES+KULON+PROGO/@-7.8948791,109.8581464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afd6465f2b165:0x6f96510ec3f540e9!8m2!3d-7.8948791!4d110.1465375!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11vrzhgd7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>0811-2953-244</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.92381</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.92381</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.204355</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Lendah/@-7.8948791,109.8581464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc5eaaa8e83f:0x428d2b5ac058920e!8m2!3d-7.9238104!4d110.2043552!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1pzpkw51g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Lendah/@-7.8948791,109.8581464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc5eaaa8e83f:0x428d2b5ac058920e!8m2!3d-7.9238104!4d110.2043552!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1pzpkw51g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -601,25 +594,24 @@
           <t>(0274) 773025</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.856158</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.856158</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.157839</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+1+Wates/@-7.8948791,109.8581464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae359d3ced19f:0xcc3fae743f0f82e2!8m2!3d-7.8561581!4d110.1578388!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hf08lxzz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -638,25 +630,24 @@
           <t>(0274) 2890012</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.940378</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.940378</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.236131</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Galur/@-7.8948791,109.8581464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afe76188e8ea1:0x24d72f744c82719f!8m2!3d-7.9403784!4d110.2361307!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11r8c08r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Galur/@-7.8948791,109.8581464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afe76188e8ea1:0x24d72f744c82719f!8m2!3d-7.9403784!4d110.2361307!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11r8c08r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -675,25 +666,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>-7.676193</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.676193</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.26236</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Kalibawang+-+Kulonprogo/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af4f5a7ca14d7:0x6a074b6a2b96d1f9!8m2!3d-7.6761929!4d110.2623601!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm1_16wp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Kalibawang+-+Kulonprogo/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af4f5a7ca14d7:0x6a074b6a2b96d1f9!8m2!3d-7.6761929!4d110.2623601!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm1_16wp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -712,25 +702,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.761615</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.761615</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.210466</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Nanggulan/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af11fe9dc434d:0xf21674779ec91136!8m2!3d-7.7616149!4d110.210466!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6n33m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Nanggulan/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af11fe9dc434d:0xf21674779ec91136!8m2!3d-7.7616149!4d110.210466!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6n33m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -753,25 +742,24 @@
           <t>(0274) 773531</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.843586</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.843586</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.168285</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pengasih/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afae10d653e6d:0x536cd030f53d121b!8m2!3d-7.8435861!4d110.1682851!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F12j096pty?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pengasih/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afae10d653e6d:0x536cd030f53d121b!8m2!3d-7.8435861!4d110.1682851!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F12j096pty?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -794,25 +782,24 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.811451</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.811451</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.166342</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Pengasih(ESPEGA)/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa98d2755143:0x12532f652aa590fa!8m2!3d-7.8114511!4d110.1663415!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2wf3kn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Pengasih(ESPEGA)/@-7.6761929,109.973969,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa98d2755143:0x12532f652aa590fa!8m2!3d-7.8114511!4d110.1663415!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2wf3kn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -831,25 +818,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>-7.886491</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.886491</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.074726</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Temon/@-7.8864913,109.7863347,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4715feff871:0xe3d3dd38396f6852!8m2!3d-7.8864913!4d110.0747258!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b6d762b4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Temon/@-7.8864913,109.7863347,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4715feff871:0xe3d3dd38396f6852!8m2!3d-7.8864913!4d110.0747258!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b6d762b4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -876,25 +862,24 @@
           <t>0811-2656-505</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.841577</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.841577</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.099082</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Kokap/@-7.8864913,109.7863347,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae505ddd4508d:0x995428860976f7b0!8m2!3d-7.841577!4d110.0990817!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11bw_6lrdx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Kokap/@-7.8864913,109.7863347,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae505ddd4508d:0x995428860976f7b0!8m2!3d-7.841577!4d110.0990817!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11bw_6lrdx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -917,25 +902,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.928909</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.928909</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.145905</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Panjatan/@-7.8864913,109.7863347,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdb268cae28d:0xd6cf1e27470dd857!8m2!3d-7.9289086!4d110.1459054!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11kj2h1w2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Panjatan/@-7.8864913,109.7863347,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdb268cae28d:0xd6cf1e27470dd857!8m2!3d-7.9289086!4d110.1459054!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11kj2h1w2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -954,25 +938,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.89504</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.89504</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.268343</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+2+Lendah/@-7.8950401,109.9799514,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afec5a6d9d3ab:0x6c653e29a646834c!8m2!3d-7.8950401!4d110.2683425!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm66v9t0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -991,25 +974,24 @@
           <t>(0747) 75303</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.9</v>
+        <v>-7.872052</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.872052</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.15073</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+VIP+PESAWAT/@-7.8950401,109.9799514,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb4896d0f00b:0x16edc07931a7cc8a!8m2!3d-7.8720522!4d110.1507301!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11f15d2hs0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1032,25 +1014,24 @@
           <t>0811-2655-220</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>-7.772218</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.772218</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.185005</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+1+Girimulyo/@-7.8950401,109.9799514,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af05705d99223:0xc813e87d3d6f4235!8m2!3d-7.772218!4d110.1850049!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2g49tm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1069,25 +1050,24 @@
           <t>0822-748-579</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>-7.864264</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.864264</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.24603</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Sentolo/@-7.8950401,109.9799514,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af951b292093d:0xf4abd396fb713d2d!8m2!3d-7.8642638!4d110.2460295!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5yclcy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Sentolo/@-7.8950401,109.9799514,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af951b292093d:0xf4abd396fb713d2d!8m2!3d-7.8642638!4d110.2460295!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5yclcy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1114,25 +1094,24 @@
           <t>0813-2830-5488</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>-7.871465</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.871465</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.195788</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Pengasih/@-7.8950401,109.9799514,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb9936341f83:0x2c7e98f9d1377ae8!8m2!3d-7.8714646!4d110.1957879!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11f1026swh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Pengasih/@-7.8950401,109.9799514,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb9936341f83:0x2c7e98f9d1377ae8!8m2!3d-7.8714646!4d110.1957879!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11f1026swh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1155,25 +1134,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.668756</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.668756</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.165147</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+N+1+Samigaluh/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af2ecc33c6bcd:0xb5ac93531331b005!8m2!3d-7.6687559!4d110.1651473!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11c1nqjv28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+N+1+Samigaluh/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af2ecc33c6bcd:0xb5ac93531331b005!8m2!3d-7.6687559!4d110.1651473!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11c1nqjv28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1196,25 +1174,24 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.838354</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.838354</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.219976</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa31720154bf:0xcd40bb4f4dffccee!8m2!3d-7.8383544!4d110.2199763!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm1rdgwg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa31720154bf:0xcd40bb4f4dffccee!8m2!3d-7.8383544!4d110.2199763!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm1rdgwg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1241,25 +1218,24 @@
           <t>(0274) 7496720</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.3</v>
+        <v>-7.807677</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.807677</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.109328</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+KOKAP/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aef89ed31adbf:0xff56e8098ce0e708!8m2!3d-7.8076766!4d110.1093277!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11c538zdlw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+KOKAP/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aef89ed31adbf:0xff56e8098ce0e708!8m2!3d-7.8076766!4d110.1093277!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11c538zdlw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1286,25 +1262,24 @@
           <t>(0274) 773053</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.7</v>
+        <v>-7.855699</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.855699</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.15651</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Wates+(4th+State+Junior+High+School)/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb24f4906cf7:0xaef87a31001fd266!8m2!3d-7.8556988!4d110.1565096!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11cls6c7kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Wates+(4th+State+Junior+High+School)/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb24f4906cf7:0xaef87a31001fd266!8m2!3d-7.8556988!4d110.1565096!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11cls6c7kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1331,25 +1306,24 @@
           <t>(0274) 773557</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>-7.870979</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.870979</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.141024</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+5+Wates/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4ada224f79b:0xbc4d5e72c498e088!8m2!3d-7.8709793!4d110.141024!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1pzxk_cqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+5+Wates/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4ada224f79b:0xbc4d5e72c498e088!8m2!3d-7.8709793!4d110.141024!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1pzxk_cqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1368,25 +1342,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>-7.82737</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.82737</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.227068</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa23a1bdba0f:0xdff334547e6900d4!8m2!3d-7.8273697!4d110.2270679!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm4cykb9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa23a1bdba0f:0xdff334547e6900d4!8m2!3d-7.8273697!4d110.2270679!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm4cykb9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1409,25 +1382,24 @@
           <t>(0274) 7103605</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.861113</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.861113</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.215359</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbc127cef7ed:0xd6abd3622deaf3bf!8m2!3d-7.8611125!4d110.2153594!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5np844?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbc127cef7ed:0xd6abd3622deaf3bf!8m2!3d-7.8611125!4d110.2153594!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5np844?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1450,25 +1422,24 @@
           <t>0881-3948-228</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.6</v>
+        <v>-7.857676</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.857676</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.161132</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+BOPKRI+1+Wates/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb9ac909d9d3:0x643f26b231df03d2!8m2!3d-7.857676!4d110.161132!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11kj2cdbwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+BOPKRI+1+Wates/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb9ac909d9d3:0x643f26b231df03d2!8m2!3d-7.857676!4d110.161132!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11kj2cdbwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1495,25 +1466,24 @@
           <t>0851-0049-2530</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>-7.875486</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.875486</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.059273</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Temon/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae47441790e6b:0xcfeae1d43be5b50e!8m2!3d-7.8754865!4d110.0592733!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm41r028?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Temon/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae47441790e6b:0xcfeae1d43be5b50e!8m2!3d-7.8754865!4d110.0592733!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm41r028?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1532,25 +1502,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>-7.828725</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.828725</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.070313</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Kokap/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae5c9f4370eb1:0x455b6721e27e919b!8m2!3d-7.8287249!4d110.0703133!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11cnbsgwrg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Kokap/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae5c9f4370eb1:0x455b6721e27e919b!8m2!3d-7.8287249!4d110.0703133!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11cnbsgwrg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1573,25 +1542,24 @@
           <t>0851-0015-2838</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.693339</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.693339</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.26047</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+MUHAMMADIYAH+2+KALIBAWANG/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af441f67a38cf:0xcae24a9f02f33f6b!8m2!3d-7.6933388!4d110.2604701!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11f3dfcfkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+MUHAMMADIYAH+2+KALIBAWANG/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af441f67a38cf:0xcae24a9f02f33f6b!8m2!3d-7.6933388!4d110.2604701!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11f3dfcfkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1618,25 +1586,24 @@
           <t>(0274) 2824619</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.782911</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.782911</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.217444</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Nanggulan/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af0b8ff89f037:0x5111f4eddbf355e3!8m2!3d-7.7829108!4d110.2174435!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1pzxxmmzk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Nanggulan/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af0b8ff89f037:0x5111f4eddbf355e3!8m2!3d-7.7829108!4d110.2174435!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1pzxxmmzk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1663,25 +1630,24 @@
           <t>(0274) 773990</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>-7.898105</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.898105</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.16611</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Panjatan/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc98237b67c3:0x4aa839018d2d1d74!8m2!3d-7.8981052!4d110.1661097!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5q6_z7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Panjatan/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc98237b67c3:0x4aa839018d2d1d74!8m2!3d-7.8981052!4d110.1661097!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5q6_z7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1704,25 +1670,24 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.745539</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.745539</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.187553</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Girimulyo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af1a07de0c089:0xc54e2d98a163e3c7!8m2!3d-7.7455393!4d110.1875525!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6j451g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Girimulyo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af1a07de0c089:0xc54e2d98a163e3c7!8m2!3d-7.7455393!4d110.1875525!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6j451g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1749,25 +1714,24 @@
           <t>(0274) 773578</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.7</v>
+        <v>-7.89067</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.89067</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.112526</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Wates/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae49e3b345d1d:0x8627d42b9bf0a2c3!8m2!3d-7.8906702!4d110.1125259!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm44gxmw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Wates/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae49e3b345d1d:0x8627d42b9bf0a2c3!8m2!3d-7.8906702!4d110.1125259!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm44gxmw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1786,25 +1750,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F33" t="n">
-        <v>3.8</v>
+        <v>-7.776442</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.776442</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.113522</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+4+Girimulyo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aefb79fcb9c9f:0xcca1154c12f3c365!8m2!3d-7.7764419!4d110.1135222!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm3b71lq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1823,25 +1786,24 @@
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F34" t="n">
-        <v>3.8</v>
+        <v>-7.789175</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.789175</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.160714</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+4+Pengasih(PATRAS)/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af0145be9482f:0x54146f6818939999!8m2!3d-7.7891748!4d110.1607138!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6jxl8y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1860,25 +1822,24 @@
           <t>0811-2637-040</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.8863</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.8863</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.079022</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+MUHAMMADIYAH+1+TEMON/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae470951c32bd:0xbc1d97d57a440a8a!8m2!3d-7.8862997!4d110.0790217!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b7hjcytq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1897,25 +1858,24 @@
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.6</v>
+        <v>-7.685621</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.685621</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.183837</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+3+Samigaluh/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af2546e8680b9:0x514226c50bd8848e!8m2!3d-7.6856207!4d110.1838371!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm3rbcm6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1930,25 +1890,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.740272</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.740272</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.211466</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Ma'arif+Yani,+Nanggulan/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af1ccd9879aa5:0x619f6e4ecb4333ba!8m2!3d-7.7402717!4d110.2114655!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11h1hs0696?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Ma'arif+Yani,+Nanggulan/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af1ccd9879aa5:0x619f6e4ecb4333ba!8m2!3d-7.7402717!4d110.2114655!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11h1hs0696?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1967,25 +1926,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>-7.868439</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.868439</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.05383</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Kokap/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4247f710c9b:0xc4f965d0f1060701!8m2!3d-7.8684387!4d110.0538301!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm328k22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Kokap/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4247f710c9b:0xc4f965d0f1060701!8m2!3d-7.8684387!4d110.0538301!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm328k22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2008,25 +1966,24 @@
           <t>(0274) 6473131</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.3</v>
+        <v>-7.82734</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.82734</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.199372</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa5d2975a245:0x32b9beab56eee912!8m2!3d-7.82734!4d110.199372!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F12hp589lv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Sentolo/@-7.6687559,109.8767562,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa5d2975a245:0x32b9beab56eee912!8m2!3d-7.82734!4d110.199372!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F12hp589lv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2049,25 +2006,24 @@
           <t>0851-0210-0132</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>-7.941335</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.941335</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.209406</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Galur/@-7.9413346,109.9210145,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdb845555555:0x10f3d0bc0bc204e3!8m2!3d-7.9413346!4d110.2094056!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11bc7sqptl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Galur/@-7.9413346,109.9210145,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdb845555555:0x10f3d0bc0bc204e3!8m2!3d-7.9413346!4d110.2094056!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11bc7sqptl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2090,25 +2046,24 @@
           <t>0811-2647-226</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.8255</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.8255</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.224552</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Sentolo/@-7.9413346,109.9210145,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa22dab14239:0xa2a54eb3a919a154!8m2!3d-7.8255002!4d110.2245524!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm526fv3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Sentolo/@-7.9413346,109.9210145,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa22dab14239:0xa2a54eb3a919a154!8m2!3d-7.8255002!4d110.2245524!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm526fv3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2131,25 +2086,24 @@
           <t>(0274) 773652</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.6</v>
+        <v>-7.85876</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.85876</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.164282</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Wates/@-7.9413346,109.9210145,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb045563bebf:0xcd6fb6e02f2aca28!8m2!3d-7.8587605!4d110.1642819!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5zTFZwaFlucDNSUkFC4AEA-gEECAAQHw!16s%2Fg%2F1pzwl8hc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2168,25 +2122,24 @@
           <t>0818-0412-7909</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.7</v>
+        <v>-7.660234</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.660234</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.157631</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+N+2+Samigaluh/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af2bdd0ef71f5:0x4a7ddf23327434bb!8m2!3d-7.660234!4d110.1576306!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU1tSlRZbWhCUlJBQuABAPoBBAgjEBQ!16s%2Fg%2F11c55bqd0v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2205,25 +2158,24 @@
           <t>0852-9262-6945</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F44" t="n">
-        <v>3.2</v>
+        <v>-7.717397</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.717397</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.179015</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Samigaluh/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af22ed6277675:0x6bd7f1d276214e9a!8m2!3d-7.7173973!4d110.1790145!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm28hzbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2238,25 +2190,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.2</v>
+        <v>-7.685105</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.685105</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.258327</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/smp+negeri+2+kalibawang/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af500540d99dd:0xf4d16384f05316bf!8m2!3d-7.6851047!4d110.2583273!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhhRFJUVld0QlJSQULgAQD6AQQIABAe!16s%2Fg%2F11lf258_x6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/smp+negeri+2+kalibawang/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af500540d99dd:0xf4d16384f05316bf!8m2!3d-7.6851047!4d110.2583273!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhhRFJUVld0QlJSQULgAQD6AQQIABAe!16s%2Fg%2F11lf258_x6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2283,25 +2234,24 @@
           <t>0851-0150-9554</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F46" t="n">
-        <v>3.9</v>
+        <v>-7.717167</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.717167</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.225774</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Kalibawang/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af3fcee7887e3:0x89b00c6cfe8c8555!8m2!3d-7.7171671!4d110.2257737!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ05IVnRSWFZuUlJBQuABAPoBBAgAEBg!16s%2Fg%2F11cn5pc6q2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Kalibawang/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af3fcee7887e3:0x89b00c6cfe8c8555!8m2!3d-7.7171671!4d110.2257737!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ05IVnRSWFZuUlJBQuABAPoBBAgAEBg!16s%2Fg%2F11cn5pc6q2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2324,25 +2274,24 @@
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.89968</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.89968</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.259486</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+MUH+2+LENDAH/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afec0a9b889e1:0xf93367556f61960b!8m2!3d-7.8996799!4d110.2594864!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNeWJYQmhVMUIzRUFF4AEA-gEECAAQIA!16s%2Fg%2F1hm4vlxx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+MUH+2+LENDAH/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afec0a9b889e1:0xf93367556f61960b!8m2!3d-7.8996799!4d110.2594864!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNeWJYQmhVMUIzRUFF4AEA-gEECAAQIA!16s%2Fg%2F1hm4vlxx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2361,25 +2310,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.2</v>
+        <v>-7.89232</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.89232</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.14591</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Wates/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afcabd410a5e3:0xc01b0ab2770e796e!8m2!3d-7.89232!4d110.14591!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNM01tTklPRjluUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1hm2zyfbh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Wates/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afcabd410a5e3:0xc01b0ab2770e796e!8m2!3d-7.89232!4d110.14591!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNM01tTklPRjluUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1hm2zyfbh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2398,25 +2346,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.1</v>
+        <v>-7.746374</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.746374</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.212959</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Nanggulan/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af13e0e420b13:0x1d1ed7fc47275b49!8m2!3d-7.7463736!4d110.2129594!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5l740z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Nanggulan/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af13e0e420b13:0x1d1ed7fc47275b49!8m2!3d-7.7463736!4d110.2129594!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm5l740z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2443,25 +2390,24 @@
           <t>(0274) 773517</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F50" t="n">
-        <v>2.9</v>
+        <v>-7.85732</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.85732</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.155146</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Kanisius+Wates/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb24d9645797:0x768d49847af06b85!8m2!3d-7.8573196!4d110.155146!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTE1UazNWa3RSRUFF4AEA-gEECAAQEg!16s%2Fg%2F1hm1ynztr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2484,25 +2430,24 @@
           <t>(0274) 773517</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F51" t="n">
-        <v>2.9</v>
+        <v>-7.858061</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.858061</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.156107</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+1+Wates+Unit+2/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3b332417f1:0x643d0dbd8af95936!8m2!3d-7.8580614!4d110.156107!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmMwcExaM0JCUlJBQuABAPoBBAgVEBQ!16s%2Fg%2F11b69fbc44?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2517,25 +2462,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>-7.926809</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.926809</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.193658</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Lendah/@-7.9268092,109.9052669,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc549eea7c53:0x1701f042c64c176c!8m2!3d-7.9268092!4d110.193658!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOd1gwczNlbXAzUlJBQuABAPoBBAgAEBs!16s%2Fg%2F1hm4jc4lr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Lendah/@-7.9268092,109.9052669,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc549eea7c53:0x1701f042c64c176c!8m2!3d-7.9268092!4d110.193658!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOd1gwczNlbXAzUlJBQuABAPoBBAgAEBs!16s%2Fg%2F1hm4jc4lr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2558,25 +2502,24 @@
           <t>0838-6632-4470</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.1</v>
+        <v>-7.67406</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.67406</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.135537</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPENFOURSA/@-7.6740604,109.8471459,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aed6565d941ad:0x5825bd5fd5b1611!8m2!3d-7.6740604!4d110.135537!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1uQXpTbkYzUlJBQuABAPoBBAgAEAw!16s%2Fg%2F1hm5_c1lj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPENFOURSA/@-7.6740604,109.8471459,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aed6565d941ad:0x5825bd5fd5b1611!8m2!3d-7.6740604!4d110.135537!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1uQXpTbkYzUlJBQuABAPoBBAgAEAw!16s%2Fg%2F1hm5_c1lj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2595,25 +2538,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.767897</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.767897</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.213088</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+TAMANSISWA+NANGGULAN/@-7.6740604,109.8471459,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af11acdf354eb:0xd3b86fdacce27e99!8m2!3d-7.7678973!4d110.213088!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQZzY2hvb2zgAQA!16s%2Fg%2F11jnxs70h8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+TAMANSISWA+NANGGULAN/@-7.6740604,109.8471459,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af11acdf354eb:0xd3b86fdacce27e99!8m2!3d-7.7678973!4d110.213088!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQZzY2hvb2zgAQA!16s%2Fg%2F11jnxs70h8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2636,25 +2578,24 @@
           <t>(0274) 7493657</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.3</v>
+        <v>-7.939405</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.939405</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.235878</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Galur/@-7.939405,109.9474871,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afe7629674e95:0x6d13baaebe43aee4!8m2!3d-7.939405!4d110.2358782!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSa09UaGxZMjVuUlJBQuABAPoBBAgAEBY!16s%2Fg%2F1hm4hxhy7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Galur/@-7.939405,109.9474871,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afe7629674e95:0x6d13baaebe43aee4!8m2!3d-7.939405!4d110.2358782!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSa09UaGxZMjVuUlJBQuABAPoBBAgAEBY!16s%2Fg%2F1hm4hxhy7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2673,25 +2614,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.2</v>
+        <v>-7.751828</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.751828</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.123004</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Girimulyo/@-7.939405,109.9474871,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aee3c06172ff7:0x1454d090bf96da0e!8m2!3d-7.7518276!4d110.1230038!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdFgwczNaV3BSUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hm68j0kq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Girimulyo/@-7.939405,109.9474871,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aee3c06172ff7:0x1454d090bf96da0e!8m2!3d-7.7518276!4d110.1230038!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdFgwczNaV3BSUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hm68j0kq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2714,25 +2654,24 @@
           <t>(0274) 773994</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.898282</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.898282</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.166799</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+PGRI+Panjatan/@-7.939405,109.9474871,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc982c784a19:0xecd8e9a4b5562c1d!8m2!3d-7.8982817!4d110.1667987!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1tqksfvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+PGRI+Panjatan/@-7.939405,109.9474871,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc982c784a19:0xecd8e9a4b5562c1d!8m2!3d-7.8982817!4d110.1667987!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1tqksfvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2759,25 +2698,24 @@
           <t>0819-3171-8444</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.9</v>
+        <v>-7.696256</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.696256</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.224831</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Pangudi+Luhur+Kalibawang/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af38ddd12308b:0x8866e40e80c90271!8m2!3d-7.6962565!4d110.224831!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bxb8qzvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Pangudi+Luhur+Kalibawang/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af38ddd12308b:0x8866e40e80c90271!8m2!3d-7.6962565!4d110.224831!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bxb8qzvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2800,25 +2738,24 @@
           <t>0895-3596-57435</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>-7.911354</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.911354</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.250984</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPIT+ALGHIFARI+LENDAH/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7affb49d793251:0x6bfd31a184a36b7c!8m2!3d-7.9113539!4d110.2509838!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUExUZElVV3hSUlJBQuABAPoBBAgAECk!16s%2Fg%2F11t3hkl94y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPIT+ALGHIFARI+LENDAH/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7affb49d793251:0x6bfd31a184a36b7c!8m2!3d-7.9113539!4d110.2509838!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUExUZElVV3hSUlJBQuABAPoBBAgAECk!16s%2Fg%2F11t3hkl94y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2837,25 +2774,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.896683</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.896683</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.26438</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+IT+DAN+PESANTREN+MUTIARA+INSANI/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aff70ee3ceddd:0xc83b0c0b4b73f478!8m2!3d-7.8966834!4d110.2643804!15sCg9TTVAgS3Vsb24gUHJvZ2-SARByZWxpZ2lvdXNfc2Nob29s4AEA!16s%2Fg%2F11ftl2hqmy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+IT+DAN+PESANTREN+MUTIARA+INSANI/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aff70ee3ceddd:0xc83b0c0b4b73f478!8m2!3d-7.8966834!4d110.2643804!15sCg9TTVAgS3Vsb24gUHJvZ2-SARByZWxpZ2lvdXNfc2Nob29s4AEA!16s%2Fg%2F11ftl2hqmy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2878,25 +2814,24 @@
           <t>0823-1398-9298</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>-7.723945</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.723945</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.148135</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Sanjaya+Girimulyo/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af3be33adb245:0xeb44bd7700f599f9!8m2!3d-7.723945!4d110.1481354!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11jr5bwb3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Sanjaya+Girimulyo/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af3be33adb245:0xeb44bd7700f599f9!8m2!3d-7.723945!4d110.1481354!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11jr5bwb3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2915,25 +2850,24 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>-7.838902</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.838902</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.209345</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+IT+BUDI+MULYO/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbf26ae61def:0xa7c8de7a9fc4c6f5!8m2!3d-7.8389019!4d110.2093446!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11py_w1w81?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+IT+BUDI+MULYO/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbf26ae61def:0xa7c8de7a9fc4c6f5!8m2!3d-7.8389019!4d110.2093446!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11py_w1w81?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2952,25 +2886,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.872619</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.872619</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.14946</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Madinah+El+Quds/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbaaf31e156f:0xcabe83d5e502b844!8m2!3d-7.8726187!4d110.1494595!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11s2p_g8cx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2989,25 +2922,24 @@
           <t>0821-3840-4860</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.2</v>
+        <v>-7.842233</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.842233</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.10124</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Kokap/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae5bf5b65a6f1:0xbd6e14793eabd208!8m2!3d-7.8422335!4d110.1012401!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGVEbFBTbmRCUlJBQuABAPoBBAgAEEM!16s%2Fg%2F11f60zckds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Kokap/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae5bf5b65a6f1:0xbd6e14793eabd208!8m2!3d-7.8422335!4d110.1012401!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGVEbFBTbmRCUlJBQuABAPoBBAgAEEM!16s%2Fg%2F11f60zckds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3034,25 +2966,24 @@
           <t>(0274) 773055</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.7</v>
+        <v>-7.89412</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.89412</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.146731</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Wates/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae359d3ced19f:0x35c6a617f4881767!8m2!3d-7.8941203!4d110.1467311!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU15ZG5WaVVtTjNFQUXgAQD6AQQIABAe!16s%2Fg%2F1tgv9rh3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Wates/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae359d3ced19f:0x35c6a617f4881767!8m2!3d-7.8941203!4d110.1467311!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU15ZG5WaVVtTjNFQUXgAQD6AQQIABAe!16s%2Fg%2F1tgv9rh3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3075,25 +3006,24 @@
           <t>0812-2647-2771</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>-7.923976</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.923976</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.130556</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Panjatan/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae32f0885bd5b:0xa1a0e79529b99123!8m2!3d-7.923976!4d110.1305563!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWExYRTNiRUZuRUFF4AEA-gEECAAQDw!16s%2Fg%2F1hm4f4y27?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Panjatan/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae32f0885bd5b:0xa1a0e79529b99123!8m2!3d-7.923976!4d110.1305563!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWExYRTNiRUZuRUFF4AEA-gEECAAQDw!16s%2Fg%2F1hm4f4y27?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3112,25 +3042,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>-7.69653</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.69653</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.14051</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Samigaluh/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af277d4cc8d1d:0xabe51c7b76535133!8m2!3d-7.69653!4d110.14051!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm3_3q3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Samigaluh/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af277d4cc8d1d:0xabe51c7b76535133!8m2!3d-7.69653!4d110.14051!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm3_3q3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3153,25 +3082,24 @@
           <t>(0274) 7101626</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.9</v>
+        <v>-7.665709</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.665709</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.234883</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Kemasyarakatan+Promasan/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af3627b2cde03:0xa38b237f21987e98!8m2!3d-7.6657095!4d110.2348831!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2NUaHhha1ozRUFF4AEA-gEECBgQIQ!16s%2Fg%2F11bw1pw3xj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Kemasyarakatan+Promasan/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af3627b2cde03:0xa38b237f21987e98!8m2!3d-7.6657095!4d110.2348831!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2NUaHhha1ozRUFF4AEA-gEECBgQIQ!16s%2Fg%2F11bw1pw3xj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3190,25 +3118,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>5</v>
+      </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>-7.674359</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.674359</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.134686</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Samigaluh/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aed007cfb39f9:0x555c0bdbbcf28416!8m2!3d-7.6743591!4d110.1346859!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11vrrq2qlj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Samigaluh/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7aed007cfb39f9:0x555c0bdbbcf28416!8m2!3d-7.6743591!4d110.1346859!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11vrrq2qlj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -3235,25 +3162,24 @@
           <t>(0274) 773723</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.6</v>
+        <v>-7.86249</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.86249</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.146071</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Negeri+1+Kulon+Progo/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb33df5d752b:0xcf6ab57be7382c47!8m2!3d-7.8624904!4d110.1460713!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOT00wMUViV05uRUFF4AEA-gEECAAQGQ!16s%2Fg%2F1hm21shvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Negeri+1+Kulon+Progo/@-7.6962565,109.9364399,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb33df5d752b:0xcf6ab57be7382c47!8m2!3d-7.8624904!4d110.1460713!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOT00wMUViV05uRUFF4AEA-gEECAAQGQ!16s%2Fg%2F1hm21shvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3276,25 +3202,24 @@
           <t>0852-9220-9204</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>-7.950539</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.950539</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.201217</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Ma'arif+Galur/@-7.9505394,109.912826,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afd97978ad765:0xb336a9830f4de8bc!8m2!3d-7.9505394!4d110.2012171!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11fy4jcwtn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Ma'arif+Galur/@-7.9505394,109.912826,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afd97978ad765:0xb336a9830f4de8bc!8m2!3d-7.9505394!4d110.2012171!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11fy4jcwtn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -3317,25 +3242,24 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.8</v>
+        <v>-7.806476</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.806476</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.193257</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Negeri+3+Kulon+Progo/@-7.9505394,109.912826,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af0a805f70b81:0xf6aebaafa0223f2c!8m2!3d-7.8064758!4d110.1932573!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMWVYSjFUVzVuUlJBQuABAPoBBAhzEDw!16s%2Fg%2F11b6c5zxsw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Negeri+3+Kulon+Progo/@-7.9505394,109.912826,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af0a805f70b81:0xf6aebaafa0223f2c!8m2!3d-7.8064758!4d110.1932573!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMWVYSjFUVzVuUlJBQuABAPoBBAhzEDw!16s%2Fg%2F11b6c5zxsw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3362,25 +3286,24 @@
           <t>(0274) 2890698</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.1</v>
+        <v>-7.88314</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.88314</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.065075</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Negeri+2+Kulon+Progo/@-7.8831399,109.7766841,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae41440000001:0x5926b589a471488c!8m2!3d-7.8831399!4d110.0650752!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWWIxbEVhMGwzRUFF4AEA-gEFCPABEBQ!16s%2Fg%2F1pzrm3j_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Negeri+2+Kulon+Progo/@-7.8831399,109.7766841,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae41440000001:0x5926b589a471488c!8m2!3d-7.8831399!4d110.0650752!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWWIxbEVhMGwzRUFF4AEA-gEFCPABEBQ!16s%2Fg%2F1pzrm3j_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3399,25 +3322,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>-7.855993</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.855993</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.151935</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Relokasi+SMP+Negeri+1+Wates/@-7.8831399,109.7766841,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbe8d8f07415:0x9d22b3eee3c489bd!8m2!3d-7.855993!4d110.1519349!15sCg9TTVAgS3Vsb24gUHJvZ2-SARBlZHVjYXRpb25fY2VudGVy4AEA!16s%2Fg%2F11sv0g8zw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Relokasi+SMP+Negeri+1+Wates/@-7.8831399,109.7766841,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbe8d8f07415:0x9d22b3eee3c489bd!8m2!3d-7.855993!4d110.1519349!15sCg9TTVAgS3Vsb24gUHJvZ2-SARBlZHVjYXRpb25fY2VudGVy4AEA!16s%2Fg%2F11sv0g8zw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3440,25 +3362,24 @@
           <t>0811-2952-111</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.8</v>
+        <v>-7.863631</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.863631</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.156609</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Muhammadiyah+Wates/@-7.8831399,109.7766841,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb396715160f:0x9af48bb5c699e31f!8m2!3d-7.863631!4d110.1566094!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMmVYWnlaREIzUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm24p8mw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Muhammadiyah+Wates/@-7.8831399,109.7766841,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb396715160f:0x9af48bb5c699e31f!8m2!3d-7.863631!4d110.1566094!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMmVYWnlaREIzUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm24p8mw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3477,25 +3398,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.5</v>
+        <v>-7.94463</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.94463</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.214523</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+AL+MANAR+GALUR(d%2Fh+SMP+Muhammadiyah+Sewugalur)/@-7.9446303,109.9261316,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdc0fcc50d75:0x371463f7e3d6ea4f!8m2!3d-7.9446303!4d110.2145227!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xYjJONVlUbFJSUkFC4AEA-gEECAAQIA!16s%2Fg%2F11f0wpmbbx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+AL+MANAR+GALUR(d%2Fh+SMP+Muhammadiyah+Sewugalur)/@-7.9446303,109.9261316,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdc0fcc50d75:0x371463f7e3d6ea4f!8m2!3d-7.9446303!4d110.2145227!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xYjJONVlUbFJSUkFC4AEA-gEECAAQIA!16s%2Fg%2F11f0wpmbbx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3514,25 +3434,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.839615</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.839615</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.16924</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MTs+Ma'arif+Nurul+Dholam/@-7.9446303,109.9261316,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afae5d700f0e7:0x2961547994c43f7!8m2!3d-7.8396153!4d110.1692396!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11fyx9c2jc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3551,25 +3470,24 @@
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.3</v>
+        <v>-7.88811</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.88811</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.043421</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTS+Ma'arif+Jangkaran/@-7.8881103,109.7550298,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae6a84e4d82eb:0x6816545646d982f5!8m2!3d-7.8881103!4d110.0434209!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5xg8wt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTS+Ma'arif+Jangkaran/@-7.8881103,109.7550298,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae6a84e4d82eb:0x6816545646d982f5!8m2!3d-7.8881103!4d110.0434209!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5xg8wt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3592,25 +3510,24 @@
           <t>(0274) 773528</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.5</v>
+        <v>-7.858109</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.858109</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.160806</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BOPKRI/@-7.8881103,109.7550298,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3cd6df2467:0x2123726f9a218c8!8m2!3d-7.8581086!4d110.160806!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11c540_bt2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BOPKRI/@-7.8881103,109.7550298,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3cd6df2467:0x2123726f9a218c8!8m2!3d-7.8581086!4d110.160806!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11c540_bt2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3633,25 +3550,24 @@
           <t>0813-9079-8629</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.6</v>
+        <v>-7.938546</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.938546</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.234892</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PonPes-SMP+MBS+AL+MANAR./@-7.9385461,109.9465009,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdd87aa14e2d:0x949b0026bcd3ff44!8m2!3d-7.9385461!4d110.234892!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTU5HVjVWVTlCRUFF4AEA-gEFCIMCECg!16s%2Fg%2F11tdvhlw2n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PonPes-SMP+MBS+AL+MANAR./@-7.9385461,109.9465009,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afdd87aa14e2d:0x949b0026bcd3ff44!8m2!3d-7.9385461!4d110.234892!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTU5HVjVWVTlCRUFF4AEA-gEFCIMCECg!16s%2Fg%2F11tdvhlw2n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3670,25 +3586,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.8</v>
+        <v>-7.879469</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.879469</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.085369</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Better+Privat+%7C+Bimbel+dan+Les+Privat+SMP+dan+SMA+Kulon+Progo+Jogja/@-7.8794685,109.7969774,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae53714e1a117:0x63f56d212763e589!8m2!3d-7.8794685!4d110.0853685!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQZWR1Y2F0aW9uX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMUxYSkxOalZCUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11t86zc31t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Better+Privat+%7C+Bimbel+dan+Les+Privat+SMP+dan+SMA+Kulon+Progo+Jogja/@-7.8794685,109.7969774,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae53714e1a117:0x63f56d212763e589!8m2!3d-7.8794685!4d110.0853685!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQZWR1Y2F0aW9uX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMUxYSkxOalZCUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11t86zc31t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3707,25 +3622,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.7</v>
+        <v>-7.82741</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.82741</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.188835</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pondok+Pesantren+Budi+Mulyo/@-7.8794685,109.7969774,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa5fa75a8103:0x81402929fb4a1c15!8m2!3d-7.8274103!4d110.188835!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEXZWR1Y2F0aW9uYWxfaW5zdGl0dXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxhM05tVFVoUkVBReABAPoBBAgAEEY!16s%2Fg%2F11c1brnpd7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pondok+Pesantren+Budi+Mulyo/@-7.8794685,109.7969774,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa5fa75a8103:0x81402929fb4a1c15!8m2!3d-7.8274103!4d110.188835!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEXZWR1Y2F0aW9uYWxfaW5zdGl0dXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxhM05tVFVoUkVBReABAPoBBAgAEEY!16s%2Fg%2F11c1brnpd7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3752,25 +3666,24 @@
           <t>(0274) 371573</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.5</v>
+        <v>-7.81959</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.81959</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.360242</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+13+Yogyakarta/@-7.8195899,110.0718509,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57b938e41be5:0xd19dd8c8dbb24cfe!8m2!3d-7.8195899!4d110.360242!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd1p6VXRTVlZuRUFF4AEA-gEECDIQHQ!16s%2Fg%2F1hf4lsxs_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+13+Yogyakarta/@-7.8195899,110.0718509,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57b938e41be5:0xd19dd8c8dbb24cfe!8m2!3d-7.8195899!4d110.360242!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd1p6VXRTVlZuRUFF4AEA-gEECDIQHQ!16s%2Fg%2F1hf4lsxs_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3789,25 +3702,24 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>-7.834113</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.834113</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.218638</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTS+Muhammadiyah+Sentolo/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa3a10d31fdd:0x6e0d89e0ea1306b6!8m2!3d-7.8341126!4d110.2186375!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJNTTNKbVRqRjNSUkFC4AEA-gEECAAQSA!16s%2Fg%2F1hm4gvmvw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTS+Muhammadiyah+Sentolo/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa3a10d31fdd:0x6e0d89e0ea1306b6!8m2!3d-7.8341126!4d110.2186375!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJNTTNKbVRqRjNSUkFC4AEA-gEECAAQSA!16s%2Fg%2F1hm4gvmvw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3830,25 +3742,24 @@
           <t>0812-1571-347</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.5</v>
+        <v>-7.911408</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.911408</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.250803</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pondok+Pesantren+Al+Ghifari/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc541e72d8c9:0x498d239f367b025f!8m2!3d-7.9114079!4d110.2508033!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRNU1EUkVNVE4zUlJBQuABAPoBBAgAEA0!16s%2Fg%2F1pzv740tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pondok+Pesantren+Al+Ghifari/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc541e72d8c9:0x498d239f367b025f!8m2!3d-7.9114079!4d110.2508033!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRNU1EUkVNVE4zUlJBQuABAPoBBAgAEA0!16s%2Fg%2F1pzv740tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3868,22 +3779,21 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>-7.89774</v>
+      </c>
       <c r="G86" t="n">
-        <v>-7.89774</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.165041</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Laboratorium+SMP+PGRI/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afd00117d921b:0x74e79ec5dfca5198!8m2!3d-7.8977399!4d110.1650412!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11vjyg10d1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3906,25 +3816,24 @@
           <t>(0274) 773067</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.3</v>
+        <v>-7.855401</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.855401</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.158339</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wates/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae35400000001:0xe6ed43bc2ae65c71!8m2!3d-7.855401!4d110.158339!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZDBrdFpqTm5SUkFC4AEA-gEECAAQPw!16s%2Fg%2F1pz2tw1lh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wates/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae35400000001:0xe6ed43bc2ae65c71!8m2!3d-7.855401!4d110.158339!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZDBrdFpqTm5SUkFC4AEA-gEECAAQPw!16s%2Fg%2F1pz2tw1lh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3951,25 +3860,24 @@
           <t>(0274) 2890500</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.7</v>
+        <v>-7.885991</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.885991</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.141458</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAIT+Abu+Bakar+Boarding+School+Kulon+Progo/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4adaaaaaa97:0xaad2cc324cf5d3f6!8m2!3d-7.8859906!4d110.1414584!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLYzAxUGRrUlJFQUXgAQD6AQQIABAe!16s%2Fg%2F11g87646bw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAIT+Abu+Bakar+Boarding+School+Kulon+Progo/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7ae4adaaaaaa97:0xaad2cc324cf5d3f6!8m2!3d-7.8859906!4d110.1414584!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLYzAxUGRrUlJFQUXgAQD6AQQIABAe!16s%2Fg%2F11g87646bw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3996,25 +3904,24 @@
           <t>(0274) 7724355</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>-7.900069</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.900069</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.147176</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Ma'arif+Wates/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afcb1e11c3c3b:0x4d0ec8a61dc326d1!8m2!3d-7.9000689!4d110.147176!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rY1U5ZmMydDNSUkFC4AEA-gEECAAQLA!16s%2Fg%2F11b8vdxv9p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Ma'arif+Wates/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afcb1e11c3c3b:0x4d0ec8a61dc326d1!8m2!3d-7.9000689!4d110.147176!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rY1U5ZmMydDNSUkFC4AEA-gEECAAQLA!16s%2Fg%2F11b8vdxv9p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4037,25 +3944,24 @@
           <t>0823-1400-1900</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.3</v>
+        <v>-7.875495</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.875495</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.231346</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pondok+Pesantren+Nurul+Haromain+Kulonprogo/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbfcc62a581b:0xf065f82ee4c2545e!8m2!3d-7.8754946!4d110.231346!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMWVYVllYMHgzRUFF4AEA-gEECAAQEQ!16s%2Fg%2F1pzx04gyx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pondok+Pesantren+Nurul+Haromain+Kulonprogo/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbfcc62a581b:0xf065f82ee4c2545e!8m2!3d-7.8754946!4d110.231346!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMWVYVllYMHgzRUFF4AEA-gEECAAQEQ!16s%2Fg%2F1pzx04gyx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -4082,25 +3988,24 @@
           <t>(0274) 773344</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.3</v>
+        <v>-7.864979</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.864979</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.159678</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Wates/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3ee855e49d:0x15c51174b30adbe0!8m2!3d-7.8649787!4d110.1596781!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJOelpxVEhSM1JSQULgAQD6AQQIUBA5!16s%2Fg%2F1hm3wygmm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Wates/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3ee855e49d:0x15c51174b30adbe0!8m2!3d-7.8649787!4d110.1596781!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJOelpxVEhSM1JSQULgAQD6AQQIUBA5!16s%2Fg%2F1hm3wygmm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -4127,25 +4032,24 @@
           <t>(0274) 561374</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.6</v>
+        <v>-7.791298</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.791298</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.350732</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+7+Yogyakarta/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5958ff5f53e5:0xe2d4baaff786fd09!8m2!3d-7.7912982!4d110.3507322!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zZEVrMlpHTm5FQUXgAQD6AQQIABA9!16s%2Fg%2F11h01t1306?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+7+Yogyakarta/@-7.8341126,109.9302464,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5958ff5f53e5:0xe2d4baaff786fd09!8m2!3d-7.7912982!4d110.3507322!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zZEVrMlpHTm5FQUXgAQD6AQQIABA9!16s%2Fg%2F11h01t1306?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4172,25 +4076,24 @@
           <t>(0274) 371168</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.7</v>
+        <v>-7.819935</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.819935</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.397652</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+9+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57141e8c30e9:0x77a9719598ce9ad4!8m2!3d-7.8199354!4d110.3976521!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUVp6VkxhbHBSRUFF4AEA-gEECAAQHQ!16s%2Fg%2F11bv16nm_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+9+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57141e8c30e9:0x77a9719598ce9ad4!8m2!3d-7.8199354!4d110.3976521!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUVp6VkxhbHBSRUFF4AEA-gEECAAQHQ!16s%2Fg%2F11bv16nm_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4217,25 +4120,24 @@
           <t>(0274) 371032</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.7</v>
+        <v>-7.811588</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.811588</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.359275</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+16+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57936c521009:0x8da724f7feb7817e!8m2!3d-7.8115885!4d110.3592751!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2NYWlRWWFJSUlJBQuABAPoBBAgAECM!16s%2Fg%2F11b6_thc33?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+16+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57936c521009:0x8da724f7feb7817e!8m2!3d-7.8115885!4d110.3592751!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2NYWlRWWFJSUlJBQuABAPoBBAgAECM!16s%2Fg%2F11b6_thc33?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4262,25 +4164,24 @@
           <t>0853-2950-0681</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.7</v>
+        <v>-7.799738</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.799738</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.357993</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a578ba226a59f:0x928442cfeac9e7b9!8m2!3d-7.7997384!4d110.3579925!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGFVNVFjbk5SUlJBQuABAPoBBAgAECs!16s%2Fg%2F1220459t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a578ba226a59f:0x928442cfeac9e7b9!8m2!3d-7.7997384!4d110.3579925!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGFVNVFjbk5SUlJBQuABAPoBBAgAECs!16s%2Fg%2F1220459t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4307,25 +4208,24 @@
           <t>(0274) 563552</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.8</v>
+        <v>-7.794531</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.794531</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.389897</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Pangudi+Luhur+1+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5762b2e93e05:0x5240dcfdcf01f41e!8m2!3d-7.7945309!4d110.3898973!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdExXVjFPSGRuUlJBQuABAPoBBAhZEA0!16s%2Fg%2F121d1gxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Pangudi+Luhur+1+Yogyakarta/@-7.8199354,110.109261,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5762b2e93e05:0x5240dcfdcf01f41e!8m2!3d-7.7945309!4d110.3898973!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdExXVjFPSGRuUlJBQuABAPoBBAhZEA0!16s%2Fg%2F121d1gxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -4352,25 +4252,24 @@
           <t>(0274) 773554</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.7</v>
+        <v>-7.843983</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.843983</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.166379</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+1+Kulon+Progo/@-7.843983,109.8779879,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afae0e57eb1f5:0x2833f93de3345078!8m2!3d-7.843983!4d110.166379!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJaZGtrMlVUaFJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F1hm4zq43q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+1+Kulon+Progo/@-7.843983,109.8779879,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afae0e57eb1f5:0x2833f93de3345078!8m2!3d-7.843983!4d110.166379!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJaZGtrMlVUaFJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F1hm4zq43q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4397,25 +4296,24 @@
           <t>(0274) 512912</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.5</v>
+        <v>-7.791461</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.791461</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.376252</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+15+Yogyakarta/@-7.7914613,110.0878604,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a582b72c1dccd:0x9d15c8ada25ecc8c!8m2!3d-7.7914613!4d110.3762515!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb05qZ3pUbVZuRUFF4AEA-gEFCNQBEDY!16s%2Fg%2F120xp6yw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+15+Yogyakarta/@-7.7914613,110.0878604,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a582b72c1dccd:0x9d15c8ada25ecc8c!8m2!3d-7.7914613!4d110.3762515!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb05qZ3pUbVZuRUFF4AEA-gEFCNQBEDY!16s%2Fg%2F120xp6yw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4442,25 +4340,24 @@
           <t>(0274) 563012</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.7</v>
+        <v>-7.786334</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.786334</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.360056</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+12+Yogyakarta/@-7.7914613,110.0878604,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a58234cf30bb5:0x6e52fd8afe3dff02!8m2!3d-7.786334!4d110.360056!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWFqWlBVREpCUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hf6jh_zk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+12+Yogyakarta/@-7.7914613,110.0878604,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a58234cf30bb5:0x6e52fd8afe3dff02!8m2!3d-7.786334!4d110.360056!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWFqWlBVREpCUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hf6jh_zk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4487,25 +4384,24 @@
           <t>(0274) 773646</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.6</v>
+        <v>-7.893009</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.893009</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.152691</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Wates+(UNIT+1)/@-7.8930087,109.8642995,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afca626d83abf:0x73020c463a67f753!8m2!3d-7.8930087!4d110.1526906!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkxjM0JIVm14M1JSQULgAQD6AQQIABA9!16s%2Fg%2F11fzsthw1z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Wates+(UNIT+1)/@-7.8930087,109.8642995,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afca626d83abf:0x73020c463a67f753!8m2!3d-7.8930087!4d110.1526906!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkxjM0JIVm14M1JSQULgAQD6AQQIABA9!16s%2Fg%2F11fzsthw1z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -4528,25 +4424,24 @@
           <t>(0274) 6560331</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
       <c r="F101" t="n">
-        <v>4</v>
+        <v>-7.857139</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.857139</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.158874</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Bopkri+Wates/@-7.8930087,109.8642995,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb2345354bc5:0x1bb8e417c4c09d83!8m2!3d-7.8571389!4d110.158874!15sCg9TTVAgS3Vsb24gUHJvZ2-SARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11b6s3v2zs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Bopkri+Wates/@-7.8930087,109.8642995,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb2345354bc5:0x1bb8e417c4c09d83!8m2!3d-7.8571389!4d110.158874!15sCg9TTVAgS3Vsb24gUHJvZ2-SARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11b6s3v2zs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -4573,25 +4468,24 @@
           <t>(0274) 560232</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F102" t="n">
-        <v>4.5</v>
+        <v>-7.777449</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.777449</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.375459</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Yogyakarta/@-7.7774489,110.0870677,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5835ab2a9a6d:0x41da88d6790bad69!8m2!3d-7.7774489!4d110.3754588!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOVWRtTnBXV2xSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F1214fn7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Yogyakarta/@-7.7774489,110.0870677,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5835ab2a9a6d:0x41da88d6790bad69!8m2!3d-7.7774489!4d110.3754588!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOVWRtTnBXV2xSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F1214fn7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4614,25 +4508,24 @@
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F103" t="n">
-        <v>4.4</v>
+        <v>-7.79531</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.79531</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.36458</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Yogyakarta/@-7.7774489,110.0870677,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a58279026c9c1:0x5b0bc895493292f!8m2!3d-7.7953096!4d110.36458!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTE4yVllkblYzUlJBQuABAPoBBAgAECU!16s%2Fg%2F11bbw_tg9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Yogyakarta/@-7.7774489,110.0870677,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a58279026c9c1:0x5b0bc895493292f!8m2!3d-7.7953096!4d110.36458!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTE4yVllkblYzUlJBQuABAPoBBAgAECU!16s%2Fg%2F11bbw_tg9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4659,25 +4552,24 @@
           <t>(0274) 370169</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F104" t="n">
-        <v>4.5</v>
+        <v>-7.8243</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.8243</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.374071</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+9+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%99%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.7774489,110.0870677,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57a65fc802db:0x7ccfa5060dfaa81c!8m2!3d-7.8243003!4d110.3740711!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNekxYQjVURUZSRUFF4AEA-gEECAAQJA!16s%2Fg%2F11bbx10y_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+9+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%99%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.7774489,110.0870677,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57a65fc802db:0x7ccfa5060dfaa81c!8m2!3d-7.8243003!4d110.3740711!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNekxYQjVURUZSRUFF4AEA-gEECAAQJA!16s%2Fg%2F11bbx10y_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4696,25 +4588,24 @@
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.6</v>
+        <v>-7.842689</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.842689</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.167556</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pondok+Pesantren+Al-Manar/@-7.8426887,109.879165,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb20dc272a81:0x323cceff2719eb3d!8m2!3d-7.8426887!4d110.1675561!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOa05rOXRaRGwzUlJBQuABAPoBBAgAECo!16s%2Fg%2F1pzyc6wln?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pondok+Pesantren+Al-Manar/@-7.8426887,109.879165,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb20dc272a81:0x323cceff2719eb3d!8m2!3d-7.8426887!4d110.1675561!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQcmVsaWdpb3VzX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOa05rOXRaRGwzUlJBQuABAPoBBAgAECo!16s%2Fg%2F1pzyc6wln?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -4741,25 +4632,24 @@
           <t>(0274) 587374</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.5</v>
+        <v>-7.792983</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.792983</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.363426</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Stella+Duce+1+Yogyakarta/@-7.7929829,110.0750346,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a58270091858b:0x42d0383234603677!8m2!3d-7.7929829!4d110.3634257!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNGMyUkVjekIzUlJBQuABAPoBBAgAEEM!16s%2Fm%2F012hcwb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Stella+Duce+1+Yogyakarta/@-7.7929829,110.0750346,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a58270091858b:0x42d0383234603677!8m2!3d-7.7929829!4d110.3634257!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNGMyUkVjekIzUlJBQuABAPoBBAgAEEM!16s%2Fm%2F012hcwb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4786,25 +4676,24 @@
           <t>(0274) 375158</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F107" t="n">
-        <v>4.6</v>
+        <v>-7.802751</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.802751</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.351701</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Yogyakarta/@-7.7929829,110.0750346,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57f3bab3ca97:0xf0aeddd750a2a7d2!8m2!3d-7.8027509!4d110.3517008!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRM2FreEhXamxCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1hf2g9432?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Yogyakarta/@-7.7929829,110.0750346,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57f3bab3ca97:0xf0aeddd750a2a7d2!8m2!3d-7.8027509!4d110.3517008!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRM2FreEhXamxCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1hf2g9432?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -4828,22 +4717,21 @@
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>-7.845249</v>
+      </c>
       <c r="G108" t="n">
-        <v>-7.845249</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.219459</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BimBel+GITA+%2F+Bimbingan+Belajar+Gita+%2F+Les+SD+%2F+Les+SMP+Les+Matematika/@-7.8452488,109.9310675,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb0a3d8ae715:0x36ed8296439188aa!8m2!3d-7.8452488!4d110.2194586!15sCg9TTVAgS3Vsb24gUHJvZ2-SARBlZHVjYXRpb25fY2VudGVy4AEA!16s%2Fg%2F11s2k5p3nc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4866,25 +4754,24 @@
           <t>(0274) 773301</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F109" t="n">
-        <v>4.8</v>
+        <v>-7.865698</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.865698</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.154402</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+2+KULON+PROGO+(Gedung+Pembelajaran)/@-7.8452488,109.9310675,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb384d4ce7ad:0x885052c82948f444!8m2!3d-7.8656979!4d110.1544023!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54Y1hWbE9WcEJFQUXgAQD6AQQIABAb!16s%2Fg%2F1hm4d7yd2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+2+KULON+PROGO+(Gedung+Pembelajaran)/@-7.8452488,109.9310675,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb384d4ce7ad:0x885052c82948f444!8m2!3d-7.8656979!4d110.1544023!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54Y1hWbE9WcEJFQUXgAQD6AQQIABAb!16s%2Fg%2F1hm4d7yd2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4903,25 +4790,24 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.3</v>
+        <v>-7.828437</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.828437</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.226984</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jlaban/@-7.8452488,109.9310675,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa2381919c21:0x66a8079249dc504e!8m2!3d-7.8284375!4d110.2269844!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmFiaTFFWlU1M0VBReABAPoBBAgAEBA!16s%2Fg%2F1hm5fnnmc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jlaban/@-7.8452488,109.9310675,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afa2381919c21:0x66a8079249dc504e!8m2!3d-7.8284375!4d110.2269844!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmFiaTFFWlU1M0VBReABAPoBBAgAEBA!16s%2Fg%2F1hm5fnnmc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -4948,25 +4834,24 @@
           <t>(0274) 512268</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F111" t="n">
-        <v>4.6</v>
+        <v>-7.778411</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.778411</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.367273</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+6+Yogyakarta/@-7.7784114,110.0788823,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5837775fdb61:0x4f3955ef79eb1bf4!8m2!3d-7.7784114!4d110.3672734!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbE9FeFFTRVpCRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11gzrfpy46?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J111" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+6+Yogyakarta/@-7.7784114,110.0788823,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5837775fdb61:0x4f3955ef79eb1bf4!8m2!3d-7.7784114!4d110.3672734!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbE9FeFFTRVpCRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11gzrfpy46?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4993,25 +4878,24 @@
           <t>(0274) 587550</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F112" t="n">
-        <v>4.6</v>
+        <v>-7.786807</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.786807</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.359788</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+14+Yogyakarta/@-7.7784114,110.0788823,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a583caca8a271:0xb744b7d5ab15adf4!8m2!3d-7.786807!4d110.359788!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSGIzTm1XSFJCUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hdz6hrcf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+14+Yogyakarta/@-7.7784114,110.0788823,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a583caca8a271:0xb744b7d5ab15adf4!8m2!3d-7.786807!4d110.359788!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSGIzTm1XSFJCUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hdz6hrcf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -5034,25 +4918,24 @@
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F113" t="n">
-        <v>4.2</v>
+        <v>-7.766465</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.766465</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.208643</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Al-ICHSAN/@-7.7664655,109.9202517,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af0e11f9420b5:0x7621062802a07d8c!8m2!3d-7.7664655!4d110.2086428!15sCg9TTVAgS3Vsb24gUHJvZ2-SARByZWxpZ2lvdXNfc2Nob29s4AEA!16s%2Fg%2F11cnc65lw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Al-ICHSAN/@-7.7664655,109.9202517,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7af0e11f9420b5:0x7621062802a07d8c!8m2!3d-7.7664655!4d110.2086428!15sCg9TTVAgS3Vsb24gUHJvZ2-SARByZWxpZ2lvdXNfc2Nob29s4AEA!16s%2Fg%2F11cnc65lw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -5071,25 +4954,24 @@
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>5</v>
+      </c>
       <c r="F114" t="n">
-        <v>5</v>
+        <v>-7.877732</v>
       </c>
       <c r="G114" t="n">
-        <v>-7.877732</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.187424</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bimbel+Daneswara+%7C+Les+Privat+Anak+SD+SMP+%26+Les+Baca+Tulis+Anak+TK/@-7.7664655,109.9202517,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbdf188f3ba9:0x4b9b31e49ca10468!8m2!3d-7.8777322!4d110.1874237!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQZWR1Y2F0aW9uX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMUxYVmhNVkZuRUFF4AEA-gEECDEQMA!16s%2Fg%2F11t88rt_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J114" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bimbel+Daneswara+%7C+Les+Privat+Anak+SD+SMP+%26+Les+Baca+Tulis+Anak+TK/@-7.7664655,109.9202517,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afbdf188f3ba9:0x4b9b31e49ca10468!8m2!3d-7.8777322!4d110.1874237!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEQZWR1Y2F0aW9uX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMUxYVmhNVkZuRUFF4AEA-gEECDEQMA!16s%2Fg%2F11t88rt_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -5116,25 +4998,24 @@
           <t>(0274) 372666</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F115" t="n">
-        <v>4.7</v>
+        <v>-7.824596</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.824596</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.3758</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+10+Yogyakarta/@-7.824596,110.0874089,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57a7b5d6f035:0x7682bddc7710ed59!8m2!3d-7.824596!4d110.3758!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNM2NVMTZOa3AzRUFF4AEA-gEECAAQRw!16s%2Fg%2F11rr_gct3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J115" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+10+Yogyakarta/@-7.824596,110.0874089,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a57a7b5d6f035:0x7682bddc7710ed59!8m2!3d-7.824596!4d110.3758!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNM2NVMTZOa3AzRUFF4AEA-gEECAAQRw!16s%2Fg%2F11rr_gct3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -5161,25 +5042,24 @@
           <t>0858-7895-8029</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F116" t="n">
-        <v>4.5</v>
+        <v>-7.786147</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.786147</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.36977</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+IT+Masjid+Syuhada+Yogyakarta/@-7.824596,110.0874089,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a582e2d64dfef:0xad8190049c019b5!8m2!3d-7.7861472!4d110.3697698!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VST09UbGZPWEZuUlJBQuABAPoBBQj-AhBG!16s%2Fg%2F1hm4fgpld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J116" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+IT+Masjid+Syuhada+Yogyakarta/@-7.824596,110.0874089,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a582e2d64dfef:0xad8190049c019b5!8m2!3d-7.7861472!4d110.3697698!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VST09UbGZPWEZuUlJBQuABAPoBBQj-AhBG!16s%2Fg%2F1hm4fgpld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -5206,25 +5086,24 @@
           <t>(0274) 773081</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F117" t="n">
-        <v>4.5</v>
+        <v>-7.847827</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.847827</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.168028</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Pengasih/@-7.8478266,109.8796365,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc5342a1d6f7:0x6760b0382938aa8f!8m2!3d-7.8478266!4d110.1680276!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRjSEJoYjJWQkVBReABAPoBBAgAEDE!16s%2Fg%2F1hm4zq43r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Pengasih/@-7.8478266,109.8796365,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afc5342a1d6f7:0x6760b0382938aa8f!8m2!3d-7.8478266!4d110.1680276!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRjSEJoYjJWQkVBReABAPoBBAgAEDE!16s%2Fg%2F1hm4zq43r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -5247,25 +5126,24 @@
           <t>0851-0046-4934</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F118" t="n">
-        <v>4.8</v>
+        <v>-7.863102</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.863102</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.154797</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TK+IT+IBNU+MAS'UD/@-7.8478266,109.8796365,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3a2c2e7ad5:0x1843c4101b151e8d!8m2!3d-7.8631023!4d110.1547966!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQZzY2hvb2zgAQA!16s%2Fg%2F11c5wlztc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TK+IT+IBNU+MAS'UD/@-7.8478266,109.8796365,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3a2c2e7ad5:0x1843c4101b151e8d!8m2!3d-7.8631023!4d110.1547966!15sCg9TTVAgS3Vsb24gUHJvZ2-SAQZzY2hvb2zgAQA!16s%2Fg%2F11c5wlztc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -5292,25 +5170,24 @@
           <t>(0274) 516013</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F119" t="n">
-        <v>4.7</v>
+        <v>-7.781792</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.781792</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.373141</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+8+Yogyakarta/@-7.781792,110.0847499,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a5833db68911b:0x217c2b2ea03d998c!8m2!3d-7.781792!4d110.373141!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOU2JqVmlVRkJSRUFF4AEA-gEFCLAEEDY!16s%2Fg%2F11rr_4m6t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5329,25 +5206,24 @@
           <t>(0274) 4415220</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F120" t="n">
-        <v>4.6</v>
+        <v>-7.869088</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.869088</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.390929</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pleret/@-7.781792,110.0847499,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a569ad0c1474b:0xbbb67af64481d3a5!8m2!3d-7.869088!4d110.3909291!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeFgzTkhMVFpuUlJBQuABAPoBBAgAECI!16s%2Fg%2F1hm608c1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pleret/@-7.781792,110.0847499,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7a569ad0c1474b:0xbbb67af64481d3a5!8m2!3d-7.869088!4d110.3909291!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeFgzTkhMVFpuUlJBQuABAPoBBAgAECI!16s%2Fg%2F1hm608c1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -5374,25 +5250,24 @@
           <t>(0274) 773123</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F121" t="n">
-        <v>4.5</v>
+        <v>-7.857358</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.857358</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.174535</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pengasih(SMAPTA)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb10736a8ce3:0xf053419e5b30c38d!8m2!3d-7.8573577!4d110.1745352!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QTjJJdGNVVlJFQUXgAQD6AQQIABAR!16s%2Fg%2F1hm6jrq4b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pengasih(SMAPTA)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb10736a8ce3:0xf053419e5b30c38d!8m2!3d-7.8573577!4d110.1745352!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QTjJJdGNVVlJFQUXgAQD6AQQIABAR!16s%2Fg%2F1hm6jrq4b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
